--- a/HelaMedical/File/PolizavisReport.xlsx
+++ b/HelaMedical/File/PolizavisReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t xml:space="preserve">регистратор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">год учета </t>
   </si>
 </sst>
 </file>
@@ -521,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,6 +708,9 @@
         <v>56</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
